--- a/database/industries/khodro/khedizel/product/quarterly_seprated.xlsx
+++ b/database/industries/khodro/khedizel/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31575CE1-0B2C-431D-BFDB-60579566FEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F24D28-0C95-4F3D-9F34-FAF26A4A109A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="75">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -721,12 +721,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -741,7 +741,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -775,7 +775,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -790,7 +790,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -807,7 +807,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -839,7 +839,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -876,7 +876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -891,7 +891,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -928,11 +928,11 @@
       <c r="H11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
+      <c r="I11" s="11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K11" s="11" t="s">
         <v>18</v>
@@ -947,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -956,37 +956,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>-10</v>
+        <v>-108</v>
       </c>
       <c r="F12" s="13">
-        <v>-108</v>
+        <v>259</v>
       </c>
       <c r="G12" s="13">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="H12" s="13">
-        <v>153</v>
+        <v>403</v>
       </c>
       <c r="I12" s="13">
-        <v>403</v>
-      </c>
-      <c r="J12" s="13">
         <v>611</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>451</v>
       </c>
       <c r="L12" s="13">
-        <v>451</v>
+        <v>902</v>
       </c>
       <c r="M12" s="13">
-        <v>902</v>
+        <v>592</v>
       </c>
       <c r="N12" s="13">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>21</v>
       </c>
@@ -995,25 +995,25 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>-15</v>
+      </c>
+      <c r="F13" s="11">
+        <v>16</v>
+      </c>
+      <c r="G13" s="11">
+        <v>0</v>
+      </c>
+      <c r="H13" s="11">
+        <v>5</v>
+      </c>
+      <c r="I13" s="11">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
-        <v>-15</v>
-      </c>
-      <c r="G13" s="11">
-        <v>16</v>
-      </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>5</v>
-      </c>
-      <c r="J13" s="11">
-        <v>1</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>22</v>
       </c>
@@ -1034,11 +1034,11 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>4</v>
-      </c>
-      <c r="F14" s="13">
         <v>1</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G14" s="13" t="s">
         <v>18</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>23</v>
       </c>
@@ -1073,11 +1073,11 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>117</v>
-      </c>
-      <c r="F15" s="11">
         <v>23</v>
       </c>
+      <c r="F15" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1087,12 +1087,12 @@
       <c r="I15" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="J15" s="11">
         <v>324</v>
       </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L15" s="11" t="s">
         <v>18</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
@@ -1112,37 +1112,37 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F16" s="13">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="G16" s="13">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="H16" s="13">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I16" s="13">
-        <v>22</v>
-      </c>
-      <c r="J16" s="13">
         <v>27</v>
       </c>
-      <c r="K16" s="13" t="s">
-        <v>18</v>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13">
+        <v>69</v>
       </c>
       <c r="L16" s="13">
-        <v>69</v>
+        <v>156</v>
       </c>
       <c r="M16" s="13">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="N16" s="13">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1150,12 +1150,12 @@
         <v>20</v>
       </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11">
+      <c r="E17" s="11">
         <v>275</v>
       </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="11" t="s">
         <v>18</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>26</v>
       </c>
@@ -1198,14 +1198,14 @@
       <c r="G18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>18</v>
+      <c r="H18" s="13">
+        <v>0</v>
       </c>
       <c r="I18" s="13">
         <v>0</v>
       </c>
-      <c r="J18" s="13">
-        <v>0</v>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="K18" s="13" t="s">
         <v>18</v>
@@ -1220,7 +1220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>27</v>
       </c>
@@ -1229,11 +1229,11 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>154</v>
-      </c>
-      <c r="F19" s="11">
         <v>95</v>
       </c>
+      <c r="F19" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>28</v>
       </c>
@@ -1270,8 +1270,8 @@
       <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F20" s="13">
-        <v>0</v>
+      <c r="F20" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G20" s="13" t="s">
         <v>18</v>
@@ -1298,7 +1298,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
@@ -1307,11 +1307,11 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11">
-        <v>30</v>
-      </c>
-      <c r="F21" s="11">
         <v>13</v>
       </c>
+      <c r="F21" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="11" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>30</v>
       </c>
@@ -1346,10 +1346,10 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
-        <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G22" s="13" t="s">
         <v>18</v>
@@ -1376,7 +1376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>31</v>
       </c>
@@ -1387,8 +1387,8 @@
       <c r="E23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>18</v>
+      <c r="F23" s="11">
+        <v>0</v>
       </c>
       <c r="G23" s="11">
         <v>0</v>
@@ -1397,25 +1397,25 @@
         <v>0</v>
       </c>
       <c r="I23" s="11">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11">
         <v>1</v>
       </c>
-      <c r="K23" s="11" t="s">
-        <v>18</v>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11">
+        <v>86</v>
       </c>
       <c r="L23" s="11">
-        <v>86</v>
+        <v>203</v>
       </c>
       <c r="M23" s="11">
-        <v>203</v>
+        <v>386</v>
       </c>
       <c r="N23" s="11">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>32</v>
       </c>
@@ -1426,8 +1426,8 @@
       <c r="E24" s="13">
         <v>11</v>
       </c>
-      <c r="F24" s="13">
-        <v>11</v>
+      <c r="F24" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>18</v>
@@ -1454,7 +1454,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
         <v>33</v>
       </c>
@@ -1465,35 +1465,35 @@
       <c r="E25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>18</v>
+      <c r="F25" s="11">
+        <v>71</v>
       </c>
       <c r="G25" s="11">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="H25" s="11">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I25" s="11">
-        <v>99</v>
-      </c>
-      <c r="J25" s="11">
         <v>79</v>
       </c>
-      <c r="K25" s="11" t="s">
-        <v>18</v>
+      <c r="J25" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="11">
+        <v>45</v>
       </c>
       <c r="L25" s="11">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="M25" s="11">
-        <v>154</v>
+        <v>86</v>
       </c>
       <c r="N25" s="11">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="12" t="s">
         <v>34</v>
       </c>
@@ -1504,8 +1504,8 @@
       <c r="E26" s="13">
         <v>0</v>
       </c>
-      <c r="F26" s="13">
-        <v>0</v>
+      <c r="F26" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G26" s="13" t="s">
         <v>18</v>
@@ -1532,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>35</v>
       </c>
@@ -1540,8 +1540,8 @@
         <v>20</v>
       </c>
       <c r="D27" s="11"/>
-      <c r="E27" s="11">
-        <v>0</v>
+      <c r="E27" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F27" s="11" t="s">
         <v>18</v>
@@ -1571,7 +1571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="12" t="s">
         <v>36</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>37</v>
       </c>
@@ -1618,11 +1618,11 @@
         <v>20</v>
       </c>
       <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="11">
-        <v>0</v>
+      <c r="E29" s="11">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G29" s="11" t="s">
         <v>18</v>
@@ -1649,7 +1649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>38</v>
       </c>
@@ -1660,72 +1660,72 @@
       <c r="E30" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F30" s="13" t="s">
-        <v>18</v>
+      <c r="F30" s="13">
+        <v>261</v>
       </c>
       <c r="G30" s="13">
-        <v>261</v>
+        <v>94</v>
       </c>
       <c r="H30" s="13">
-        <v>94</v>
+        <v>264</v>
       </c>
       <c r="I30" s="13">
-        <v>264</v>
-      </c>
-      <c r="J30" s="13">
         <v>320</v>
       </c>
-      <c r="K30" s="13" t="s">
-        <v>18</v>
+      <c r="J30" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="13">
+        <v>63</v>
       </c>
       <c r="L30" s="13">
-        <v>63</v>
+        <v>325</v>
       </c>
       <c r="M30" s="13">
-        <v>325</v>
+        <v>586</v>
       </c>
       <c r="N30" s="13">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F31" s="15">
-        <v>320</v>
+        <v>645</v>
       </c>
       <c r="G31" s="15">
-        <v>645</v>
+        <v>259</v>
       </c>
       <c r="H31" s="15">
-        <v>259</v>
+        <v>793</v>
       </c>
       <c r="I31" s="15">
-        <v>793</v>
+        <v>1039</v>
       </c>
       <c r="J31" s="15">
-        <v>1039</v>
+        <v>324</v>
       </c>
       <c r="K31" s="15">
-        <v>324</v>
+        <v>714</v>
       </c>
       <c r="L31" s="15">
-        <v>714</v>
+        <v>1740</v>
       </c>
       <c r="M31" s="15">
-        <v>1740</v>
+        <v>1884</v>
       </c>
       <c r="N31" s="15">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>40</v>
       </c>
@@ -1742,7 +1742,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>41</v>
       </c>
@@ -1753,8 +1753,8 @@
       <c r="E33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>18</v>
+      <c r="F33" s="11">
+        <v>0</v>
       </c>
       <c r="G33" s="11">
         <v>0</v>
@@ -1762,8 +1762,8 @@
       <c r="H33" s="11">
         <v>0</v>
       </c>
-      <c r="I33" s="11">
-        <v>0</v>
+      <c r="I33" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J33" s="11" t="s">
         <v>18</v>
@@ -1781,7 +1781,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="16" t="s">
         <v>42</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>43</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>26</v>
       </c>
@@ -1843,26 +1843,26 @@
         <v>17</v>
       </c>
       <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" s="11">
-        <v>0</v>
+      <c r="E36" s="11">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="11">
-        <v>0</v>
+      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="J36" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K36" s="11" t="s">
-        <v>18</v>
+      <c r="K36" s="11">
+        <v>0</v>
       </c>
       <c r="L36" s="11">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="12" t="s">
         <v>41</v>
       </c>
@@ -1885,23 +1885,23 @@
       <c r="E37" s="13">
         <v>0</v>
       </c>
-      <c r="F37" s="13">
-        <v>0</v>
+      <c r="F37" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G37" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>18</v>
+      <c r="H37" s="13">
+        <v>0</v>
       </c>
       <c r="I37" s="13">
         <v>0</v>
       </c>
-      <c r="J37" s="13">
-        <v>0</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>18</v>
+      <c r="J37" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="13">
+        <v>0</v>
       </c>
       <c r="L37" s="13">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
         <v>44</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="16" t="s">
         <v>45</v>
       </c>
@@ -1973,11 +1973,11 @@
       <c r="I39" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J39" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" s="17">
-        <v>0</v>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="L39" s="17" t="s">
         <v>18</v>
@@ -1989,7 +1989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>47</v>
       </c>
@@ -2006,8 +2006,8 @@
       <c r="G40" s="15">
         <v>0</v>
       </c>
-      <c r="H40" s="15">
-        <v>0</v>
+      <c r="H40" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>18</v>
@@ -2028,7 +2028,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="16" t="s">
         <v>48</v>
       </c>
@@ -2046,14 +2046,14 @@
       <c r="H41" s="17">
         <v>0</v>
       </c>
-      <c r="I41" s="17">
-        <v>0</v>
+      <c r="I41" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="J41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>18</v>
+      <c r="K41" s="17">
+        <v>0</v>
       </c>
       <c r="L41" s="17">
         <v>0</v>
@@ -2065,44 +2065,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F42" s="15">
-        <v>320</v>
+        <v>645</v>
       </c>
       <c r="G42" s="15">
-        <v>645</v>
+        <v>259</v>
       </c>
       <c r="H42" s="15">
-        <v>259</v>
+        <v>793</v>
       </c>
       <c r="I42" s="15">
-        <v>793</v>
+        <v>1039</v>
       </c>
       <c r="J42" s="15">
-        <v>1039</v>
+        <v>324</v>
       </c>
       <c r="K42" s="15">
-        <v>324</v>
+        <v>714</v>
       </c>
       <c r="L42" s="15">
-        <v>714</v>
+        <v>1740</v>
       </c>
       <c r="M42" s="15">
-        <v>1740</v>
+        <v>1884</v>
       </c>
       <c r="N42" s="15">
-        <v>1884</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -2117,7 +2117,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2132,7 +2132,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2147,7 +2147,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>50</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2199,7 +2199,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>51</v>
       </c>
@@ -2216,7 +2216,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -2236,12 +2236,12 @@
       <c r="H49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I49" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J49" s="11">
+      <c r="I49" s="11">
         <v>-498269</v>
       </c>
+      <c r="J49" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K49" s="11" t="s">
         <v>18</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>19</v>
       </c>
@@ -2264,37 +2264,37 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>-10443</v>
+        <v>-131527</v>
       </c>
       <c r="F50" s="13">
-        <v>-131527</v>
+        <v>1357100</v>
       </c>
       <c r="G50" s="13">
-        <v>1357100</v>
+        <v>905120</v>
       </c>
       <c r="H50" s="13">
-        <v>905120</v>
+        <v>2546415</v>
       </c>
       <c r="I50" s="13">
-        <v>2546415</v>
-      </c>
-      <c r="J50" s="13">
         <v>4224761</v>
       </c>
-      <c r="K50" s="13" t="s">
-        <v>18</v>
+      <c r="J50" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="13">
+        <v>3746342</v>
       </c>
       <c r="L50" s="13">
-        <v>3746342</v>
+        <v>7724659</v>
       </c>
       <c r="M50" s="13">
-        <v>7724659</v>
+        <v>5155477</v>
       </c>
       <c r="N50" s="13">
-        <v>5155477</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9218789</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>21</v>
       </c>
@@ -2303,25 +2303,25 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>2239</v>
+        <v>-63108</v>
       </c>
       <c r="F51" s="11">
-        <v>-63108</v>
+        <v>74942</v>
       </c>
       <c r="G51" s="11">
-        <v>74942</v>
+        <v>0</v>
       </c>
       <c r="H51" s="11">
-        <v>0</v>
+        <v>23485</v>
       </c>
       <c r="I51" s="11">
-        <v>23485</v>
-      </c>
-      <c r="J51" s="11">
         <v>4697</v>
       </c>
-      <c r="K51" s="11" t="s">
-        <v>18</v>
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11">
+        <v>0</v>
       </c>
       <c r="L51" s="11">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>22</v>
       </c>
@@ -2342,11 +2342,11 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="13">
-        <v>30138</v>
-      </c>
-      <c r="F52" s="13">
         <v>7535</v>
       </c>
+      <c r="F52" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G52" s="13" t="s">
         <v>18</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>23</v>
       </c>
@@ -2381,11 +2381,11 @@
       </c>
       <c r="D53" s="11"/>
       <c r="E53" s="11">
-        <v>755482</v>
-      </c>
-      <c r="F53" s="11">
         <v>152428</v>
       </c>
+      <c r="F53" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G53" s="11" t="s">
         <v>18</v>
       </c>
@@ -2395,12 +2395,12 @@
       <c r="I53" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J53" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" s="11">
+      <c r="J53" s="11">
         <v>3872835</v>
       </c>
+      <c r="K53" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L53" s="11" t="s">
         <v>18</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>24</v>
       </c>
@@ -2420,37 +2420,37 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="13">
-        <v>83952</v>
+        <v>188836</v>
       </c>
       <c r="F54" s="13">
-        <v>188836</v>
+        <v>224479</v>
       </c>
       <c r="G54" s="13">
-        <v>224479</v>
+        <v>64416</v>
       </c>
       <c r="H54" s="13">
-        <v>64416</v>
+        <v>121380</v>
       </c>
       <c r="I54" s="13">
-        <v>121380</v>
-      </c>
-      <c r="J54" s="13">
         <v>169310</v>
       </c>
-      <c r="K54" s="13" t="s">
-        <v>18</v>
+      <c r="J54" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="13">
+        <v>628638</v>
       </c>
       <c r="L54" s="13">
-        <v>628638</v>
+        <v>1498739</v>
       </c>
       <c r="M54" s="13">
-        <v>1498739</v>
+        <v>2055143</v>
       </c>
       <c r="N54" s="13">
-        <v>2055143</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>748729</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>25</v>
       </c>
@@ -2458,12 +2458,12 @@
         <v>52</v>
       </c>
       <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" s="11">
+      <c r="E55" s="11">
         <v>460879</v>
       </c>
+      <c r="F55" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G55" s="11" t="s">
         <v>18</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>26</v>
       </c>
@@ -2506,15 +2506,15 @@
       <c r="G56" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>18</v>
+      <c r="H56" s="13">
+        <v>0</v>
       </c>
       <c r="I56" s="13">
-        <v>0</v>
-      </c>
-      <c r="J56" s="13">
         <v>1659724</v>
       </c>
+      <c r="J56" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K56" s="13" t="s">
         <v>18</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>27</v>
       </c>
@@ -2537,11 +2537,11 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>493009</v>
-      </c>
-      <c r="F57" s="11">
         <v>480927</v>
       </c>
+      <c r="F57" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G57" s="11" t="s">
         <v>18</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>28</v>
       </c>
@@ -2578,8 +2578,8 @@
       <c r="E58" s="13">
         <v>0</v>
       </c>
-      <c r="F58" s="13">
-        <v>0</v>
+      <c r="F58" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>18</v>
@@ -2606,7 +2606,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>29</v>
       </c>
@@ -2615,11 +2615,11 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>130498</v>
-      </c>
-      <c r="F59" s="11">
         <v>61854</v>
       </c>
+      <c r="F59" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G59" s="11" t="s">
         <v>18</v>
       </c>
@@ -2645,7 +2645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>30</v>
       </c>
@@ -2654,10 +2654,10 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="13">
-        <v>8497</v>
-      </c>
-      <c r="F60" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>18</v>
@@ -2684,7 +2684,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>31</v>
       </c>
@@ -2695,35 +2695,35 @@
       <c r="E61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F61" s="11" t="s">
-        <v>18</v>
+      <c r="F61" s="11">
+        <v>6094</v>
       </c>
       <c r="G61" s="11">
-        <v>6094</v>
+        <v>0</v>
       </c>
       <c r="H61" s="11">
         <v>0</v>
       </c>
       <c r="I61" s="11">
-        <v>0</v>
-      </c>
-      <c r="J61" s="11">
         <v>9652</v>
       </c>
-      <c r="K61" s="11" t="s">
-        <v>18</v>
+      <c r="J61" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="11">
+        <v>2322293</v>
       </c>
       <c r="L61" s="11">
-        <v>2322293</v>
+        <v>5883405</v>
       </c>
       <c r="M61" s="11">
-        <v>5883405</v>
+        <v>11858846</v>
       </c>
       <c r="N61" s="11">
-        <v>11858846</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20716419</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>32</v>
       </c>
@@ -2732,11 +2732,11 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
-        <v>49415</v>
-      </c>
-      <c r="F62" s="13">
         <v>70582</v>
       </c>
+      <c r="F62" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G62" s="13" t="s">
         <v>18</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>33</v>
       </c>
@@ -2773,35 +2773,35 @@
       <c r="E63" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F63" s="11" t="s">
-        <v>18</v>
+      <c r="F63" s="11">
+        <v>469618</v>
       </c>
       <c r="G63" s="11">
-        <v>469618</v>
+        <v>4758</v>
       </c>
       <c r="H63" s="11">
-        <v>4758</v>
+        <v>1074324</v>
       </c>
       <c r="I63" s="11">
-        <v>1074324</v>
-      </c>
-      <c r="J63" s="11">
         <v>925345</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>18</v>
+      <c r="J63" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="11">
+        <v>585216</v>
       </c>
       <c r="L63" s="11">
-        <v>585216</v>
+        <v>2215154</v>
       </c>
       <c r="M63" s="11">
-        <v>2215154</v>
+        <v>1238062</v>
       </c>
       <c r="N63" s="11">
-        <v>1238062</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3170502</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
         <v>34</v>
       </c>
@@ -2812,8 +2812,8 @@
       <c r="E64" s="13">
         <v>0</v>
       </c>
-      <c r="F64" s="13">
-        <v>0</v>
+      <c r="F64" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>18</v>
@@ -2840,7 +2840,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>35</v>
       </c>
@@ -2848,8 +2848,8 @@
         <v>52</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11">
-        <v>0</v>
+      <c r="E65" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>18</v>
@@ -2879,7 +2879,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>36</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>37</v>
       </c>
@@ -2926,11 +2926,11 @@
         <v>52</v>
       </c>
       <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="11">
-        <v>0</v>
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>18</v>
@@ -2957,7 +2957,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>38</v>
       </c>
@@ -2968,72 +2968,72 @@
       <c r="E68" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F68" s="13" t="s">
-        <v>18</v>
+      <c r="F68" s="13">
+        <v>652995</v>
       </c>
       <c r="G68" s="13">
-        <v>652995</v>
+        <v>386294</v>
       </c>
       <c r="H68" s="13">
-        <v>386294</v>
+        <v>1571776</v>
       </c>
       <c r="I68" s="13">
-        <v>1571776</v>
-      </c>
-      <c r="J68" s="13">
         <v>2296419</v>
       </c>
-      <c r="K68" s="13" t="s">
-        <v>18</v>
+      <c r="J68" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K68" s="13">
+        <v>465621</v>
       </c>
       <c r="L68" s="13">
-        <v>465621</v>
+        <v>1244968</v>
       </c>
       <c r="M68" s="13">
-        <v>1244968</v>
+        <v>1852218</v>
       </c>
       <c r="N68" s="13">
-        <v>1852218</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1624197</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C69" s="15"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15">
-        <v>1542787</v>
+        <v>1228406</v>
       </c>
       <c r="F69" s="15">
-        <v>1228406</v>
+        <v>2785228</v>
       </c>
       <c r="G69" s="15">
-        <v>2785228</v>
+        <v>1360588</v>
       </c>
       <c r="H69" s="15">
-        <v>1360588</v>
+        <v>5337380</v>
       </c>
       <c r="I69" s="15">
-        <v>5337380</v>
+        <v>8791639</v>
       </c>
       <c r="J69" s="15">
-        <v>8791639</v>
+        <v>3872835</v>
       </c>
       <c r="K69" s="15">
-        <v>3872835</v>
+        <v>7748110</v>
       </c>
       <c r="L69" s="15">
-        <v>7748110</v>
+        <v>18566925</v>
       </c>
       <c r="M69" s="15">
-        <v>18566925</v>
+        <v>22159746</v>
       </c>
       <c r="N69" s="15">
-        <v>22159746</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35478636</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>53</v>
       </c>
@@ -3050,7 +3050,7 @@
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>41</v>
       </c>
@@ -3061,18 +3061,18 @@
       <c r="E71" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F71" s="11" t="s">
-        <v>18</v>
+      <c r="F71" s="11">
+        <v>2305914</v>
       </c>
       <c r="G71" s="11">
-        <v>2305914</v>
+        <v>344357</v>
       </c>
       <c r="H71" s="11">
-        <v>344357</v>
-      </c>
-      <c r="I71" s="11">
         <v>-344357</v>
       </c>
+      <c r="I71" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J71" s="11" t="s">
         <v>18</v>
       </c>
@@ -3089,7 +3089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="16" t="s">
         <v>42</v>
       </c>
@@ -3099,16 +3099,16 @@
         <v>0</v>
       </c>
       <c r="F72" s="17">
-        <v>0</v>
+        <v>2305914</v>
       </c>
       <c r="G72" s="17">
-        <v>2305914</v>
+        <v>344357</v>
       </c>
       <c r="H72" s="17">
-        <v>344357</v>
+        <v>-344357</v>
       </c>
       <c r="I72" s="17">
-        <v>-344357</v>
+        <v>0</v>
       </c>
       <c r="J72" s="17">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>54</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>26</v>
       </c>
@@ -3151,38 +3151,38 @@
         <v>52</v>
       </c>
       <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="11">
+      <c r="E74" s="11">
         <v>-818422</v>
       </c>
+      <c r="F74" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="11">
+      <c r="H74" s="11">
         <v>442616</v>
       </c>
+      <c r="I74" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J74" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K74" s="11" t="s">
-        <v>18</v>
+      <c r="K74" s="11">
+        <v>816986</v>
       </c>
       <c r="L74" s="11">
-        <v>816986</v>
+        <v>952826</v>
       </c>
       <c r="M74" s="11">
-        <v>952826</v>
+        <v>2094976</v>
       </c>
       <c r="N74" s="11">
-        <v>2094976</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1685564</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="12" t="s">
         <v>41</v>
       </c>
@@ -3191,74 +3191,74 @@
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="13">
-        <v>673274</v>
-      </c>
-      <c r="F75" s="13">
         <v>1444866</v>
       </c>
+      <c r="F75" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G75" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="13" t="s">
-        <v>18</v>
+      <c r="H75" s="13">
+        <v>-3770</v>
       </c>
       <c r="I75" s="13">
-        <v>-3770</v>
-      </c>
-      <c r="J75" s="13">
         <v>8535</v>
       </c>
-      <c r="K75" s="13" t="s">
-        <v>18</v>
+      <c r="J75" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K75" s="13">
+        <v>359435</v>
       </c>
       <c r="L75" s="13">
-        <v>359435</v>
+        <v>727543</v>
       </c>
       <c r="M75" s="13">
-        <v>727543</v>
+        <v>887996</v>
       </c>
       <c r="N75" s="13">
-        <v>887996</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1062932</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>44</v>
       </c>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15">
-        <v>673274</v>
+        <v>626444</v>
       </c>
       <c r="F76" s="15">
-        <v>626444</v>
+        <v>0</v>
       </c>
       <c r="G76" s="15">
         <v>0</v>
       </c>
       <c r="H76" s="15">
-        <v>0</v>
+        <v>438846</v>
       </c>
       <c r="I76" s="15">
-        <v>438846</v>
+        <v>8535</v>
       </c>
       <c r="J76" s="15">
-        <v>8535</v>
+        <v>0</v>
       </c>
       <c r="K76" s="15">
-        <v>0</v>
+        <v>1176421</v>
       </c>
       <c r="L76" s="15">
-        <v>1176421</v>
+        <v>1680369</v>
       </c>
       <c r="M76" s="15">
-        <v>1680369</v>
+        <v>2982972</v>
       </c>
       <c r="N76" s="15">
-        <v>2982972</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2748496</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="16" t="s">
         <v>45</v>
       </c>
@@ -3281,12 +3281,12 @@
       <c r="I77" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K77" s="17">
+      <c r="J77" s="17">
         <v>-911972</v>
       </c>
+      <c r="K77" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="L77" s="17" t="s">
         <v>18</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="14" t="s">
         <v>47</v>
       </c>
@@ -3314,8 +3314,8 @@
       <c r="G78" s="15">
         <v>0</v>
       </c>
-      <c r="H78" s="15">
-        <v>0</v>
+      <c r="H78" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I78" s="15" t="s">
         <v>18</v>
@@ -3336,7 +3336,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>48</v>
       </c>
@@ -3354,65 +3354,65 @@
         <v>0</v>
       </c>
       <c r="H79" s="17">
-        <v>0</v>
-      </c>
-      <c r="I79" s="17">
         <v>63124</v>
       </c>
+      <c r="I79" s="17" t="s">
+        <v>18</v>
+      </c>
       <c r="J79" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K79" s="17" t="s">
-        <v>18</v>
+      <c r="K79" s="17">
+        <v>-112466</v>
       </c>
       <c r="L79" s="17">
-        <v>-112466</v>
+        <v>-237470</v>
       </c>
       <c r="M79" s="17">
-        <v>-237470</v>
+        <v>-198057</v>
       </c>
       <c r="N79" s="17">
-        <v>-198057</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-332502</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15">
-        <v>2216061</v>
+        <v>1854850</v>
       </c>
       <c r="F80" s="15">
-        <v>1854850</v>
+        <v>5091142</v>
       </c>
       <c r="G80" s="15">
-        <v>5091142</v>
+        <v>1704945</v>
       </c>
       <c r="H80" s="15">
-        <v>1704945</v>
+        <v>5494993</v>
       </c>
       <c r="I80" s="15">
-        <v>5494993</v>
+        <v>8800174</v>
       </c>
       <c r="J80" s="15">
-        <v>8800174</v>
+        <v>2960863</v>
       </c>
       <c r="K80" s="15">
-        <v>2960863</v>
+        <v>8812065</v>
       </c>
       <c r="L80" s="15">
-        <v>8812065</v>
+        <v>20009824</v>
       </c>
       <c r="M80" s="15">
-        <v>20009824</v>
+        <v>24944661</v>
       </c>
       <c r="N80" s="15">
-        <v>24944661</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37894630</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3427,7 +3427,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3442,7 +3442,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3457,7 +3457,7 @@
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
     </row>
-    <row r="84" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B84" s="7" t="s">
         <v>55</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3509,7 +3509,7 @@
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="8" t="s">
         <v>56</v>
       </c>
@@ -3526,7 +3526,7 @@
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="10" t="s">
         <v>16</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="12" t="s">
         <v>19</v>
       </c>
@@ -3574,37 +3574,37 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>3587388060</v>
+        <v>7858304348</v>
       </c>
       <c r="F88" s="13">
-        <v>7858304348</v>
+        <v>5239768340</v>
       </c>
       <c r="G88" s="13">
-        <v>5239768340</v>
+        <v>5915816993</v>
       </c>
       <c r="H88" s="13">
-        <v>5915816993</v>
+        <v>6318647643</v>
       </c>
       <c r="I88" s="13">
-        <v>6318647643</v>
+        <v>7038031097</v>
       </c>
       <c r="J88" s="13">
-        <v>7038031097</v>
+        <v>7219460916</v>
       </c>
       <c r="K88" s="13">
-        <v>7219460916</v>
+        <v>8306745011</v>
       </c>
       <c r="L88" s="13">
-        <v>8306745011</v>
+        <v>8563923503</v>
       </c>
       <c r="M88" s="13">
-        <v>8563923503</v>
+        <v>8708576014</v>
       </c>
       <c r="N88" s="13">
-        <v>8708576014</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9828133262</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="10" t="s">
         <v>21</v>
       </c>
@@ -3612,17 +3612,17 @@
         <v>58</v>
       </c>
       <c r="D89" s="11"/>
-      <c r="E89" s="11">
-        <v>3186400000</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" s="11">
+      <c r="E89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="11">
         <v>4683875000</v>
       </c>
-      <c r="H89" s="11" t="s">
-        <v>18</v>
+      <c r="G89" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" s="11">
+        <v>4697000000</v>
       </c>
       <c r="I89" s="11">
         <v>4697000000</v>
@@ -3630,8 +3630,8 @@
       <c r="J89" s="11">
         <v>4697000000</v>
       </c>
-      <c r="K89" s="11">
-        <v>4697000000</v>
+      <c r="K89" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L89" s="11" t="s">
         <v>18</v>
@@ -3643,7 +3643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="12" t="s">
         <v>22</v>
       </c>
@@ -3652,11 +3652,11 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>7534500000</v>
-      </c>
-      <c r="F90" s="13">
         <v>7535000000</v>
       </c>
+      <c r="F90" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G90" s="13" t="s">
         <v>18</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
         <v>23</v>
       </c>
@@ -3691,11 +3691,11 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>6457111111</v>
-      </c>
-      <c r="F91" s="11">
         <v>6627304348</v>
       </c>
+      <c r="F91" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G91" s="11" t="s">
         <v>18</v>
       </c>
@@ -3705,12 +3705,12 @@
       <c r="I91" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J91" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" s="11">
+      <c r="J91" s="11">
         <v>11953194444</v>
       </c>
+      <c r="K91" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L91" s="11" t="s">
         <v>18</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="12" t="s">
         <v>24</v>
       </c>
@@ -3730,37 +3730,37 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>4938352941</v>
+        <v>7553440000</v>
       </c>
       <c r="F92" s="13">
-        <v>7553440000</v>
+        <v>5907342105</v>
       </c>
       <c r="G92" s="13">
-        <v>5907342105</v>
+        <v>5856000000</v>
       </c>
       <c r="H92" s="13">
-        <v>5856000000</v>
+        <v>5517272727</v>
       </c>
       <c r="I92" s="13">
-        <v>5517272727</v>
+        <v>6546740741</v>
       </c>
       <c r="J92" s="13">
-        <v>6546740741</v>
+        <v>8412797468</v>
       </c>
       <c r="K92" s="13">
-        <v>8412797468</v>
+        <v>9110695652</v>
       </c>
       <c r="L92" s="13">
-        <v>9110695652</v>
+        <v>9607301282</v>
       </c>
       <c r="M92" s="13">
-        <v>9607301282</v>
+        <v>8782662393</v>
       </c>
       <c r="N92" s="13">
-        <v>8782662393</v>
-      </c>
-    </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8808576471</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>25</v>
       </c>
@@ -3768,12 +3768,12 @@
         <v>58</v>
       </c>
       <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="11">
+      <c r="E93" s="11">
         <v>1675923636</v>
       </c>
+      <c r="F93" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G93" s="11" t="s">
         <v>18</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="12" t="s">
         <v>26</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="10" t="s">
         <v>27</v>
       </c>
@@ -3847,11 +3847,11 @@
       </c>
       <c r="D95" s="11"/>
       <c r="E95" s="11">
-        <v>3201357143</v>
-      </c>
-      <c r="F95" s="11">
         <v>5062389474</v>
       </c>
+      <c r="F95" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G95" s="11" t="s">
         <v>18</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="12" t="s">
         <v>28</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="10" t="s">
         <v>29</v>
       </c>
@@ -3925,11 +3925,11 @@
       </c>
       <c r="D97" s="11"/>
       <c r="E97" s="11">
-        <v>4349933333</v>
-      </c>
-      <c r="F97" s="11">
         <v>4758000000</v>
       </c>
+      <c r="F97" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G97" s="11" t="s">
         <v>18</v>
       </c>
@@ -3955,7 +3955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="12" t="s">
         <v>30</v>
       </c>
@@ -3963,8 +3963,8 @@
         <v>58</v>
       </c>
       <c r="D98" s="13"/>
-      <c r="E98" s="13">
-        <v>8497000000</v>
+      <c r="E98" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F98" s="13" t="s">
         <v>18</v>
@@ -3994,7 +3994,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="10" t="s">
         <v>31</v>
       </c>
@@ -4014,26 +4014,26 @@
       <c r="H99" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I99" s="11" t="s">
-        <v>18</v>
+      <c r="I99" s="11">
+        <v>9652000000</v>
       </c>
       <c r="J99" s="11">
-        <v>9652000000</v>
+        <v>25195392857</v>
       </c>
       <c r="K99" s="11">
-        <v>25195392857</v>
+        <v>27003406977</v>
       </c>
       <c r="L99" s="11">
-        <v>27003406977</v>
+        <v>28982290640</v>
       </c>
       <c r="M99" s="11">
-        <v>28982290640</v>
+        <v>30722398964</v>
       </c>
       <c r="N99" s="11">
-        <v>30722398964</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34355587065</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="12" t="s">
         <v>32</v>
       </c>
@@ -4042,11 +4042,11 @@
       </c>
       <c r="D100" s="13"/>
       <c r="E100" s="13">
-        <v>4492272727</v>
-      </c>
-      <c r="F100" s="13">
         <v>6416545455</v>
       </c>
+      <c r="F100" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G100" s="13" t="s">
         <v>18</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>33</v>
       </c>
@@ -4083,35 +4083,35 @@
       <c r="E101" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F101" s="11" t="s">
-        <v>18</v>
+      <c r="F101" s="11">
+        <v>6614338028</v>
       </c>
       <c r="G101" s="11">
-        <v>6614338028</v>
+        <v>4758000000</v>
       </c>
       <c r="H101" s="11">
-        <v>4758000000</v>
+        <v>10851757576</v>
       </c>
       <c r="I101" s="11">
-        <v>10851757576</v>
-      </c>
-      <c r="J101" s="11">
         <v>12763683544</v>
       </c>
-      <c r="K101" s="11" t="s">
-        <v>18</v>
+      <c r="J101" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="11">
+        <v>13004800000</v>
       </c>
       <c r="L101" s="11">
-        <v>13004800000</v>
+        <v>14384116883</v>
       </c>
       <c r="M101" s="11">
-        <v>14384116883</v>
+        <v>14396069767</v>
       </c>
       <c r="N101" s="11">
-        <v>14396069767</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14678250000</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>34</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>35</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>36</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>37</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>38</v>
       </c>
@@ -4278,35 +4278,35 @@
       <c r="E106" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>18</v>
+      <c r="F106" s="13">
+        <v>2501896552</v>
       </c>
       <c r="G106" s="13">
-        <v>2501896552</v>
+        <v>4109510638</v>
       </c>
       <c r="H106" s="13">
-        <v>4109510638</v>
+        <v>5953696970</v>
       </c>
       <c r="I106" s="13">
-        <v>5953696970</v>
+        <v>7230700000</v>
       </c>
       <c r="J106" s="13">
-        <v>7230700000</v>
+        <v>8376170588</v>
       </c>
       <c r="K106" s="13">
-        <v>8376170588</v>
+        <v>7390809524</v>
       </c>
       <c r="L106" s="13">
-        <v>7390809524</v>
+        <v>3830670769</v>
       </c>
       <c r="M106" s="13">
-        <v>3830670769</v>
+        <v>3160781570</v>
       </c>
       <c r="N106" s="13">
-        <v>3160781570</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2522045031</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>59</v>
       </c>
@@ -4323,7 +4323,7 @@
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>41</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>60</v>
       </c>
@@ -4379,7 +4379,7 @@
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>26</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>41</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4472,7 +4472,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4487,7 +4487,7 @@
       <c r="M113" s="1"/>
       <c r="N113" s="1"/>
     </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4502,7 +4502,7 @@
       <c r="M114" s="1"/>
       <c r="N114" s="1"/>
     </row>
-    <row r="115" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B115" s="7" t="s">
         <v>61</v>
       </c>
@@ -4539,7 +4539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4554,7 +4554,7 @@
       <c r="M116" s="1"/>
       <c r="N116" s="1"/>
     </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>62</v>
       </c>
@@ -4571,7 +4571,7 @@
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>16</v>
       </c>
@@ -4591,11 +4591,11 @@
       <c r="H118" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I118" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J118" s="11">
-        <v>0</v>
+      <c r="I118" s="11">
+        <v>0</v>
+      </c>
+      <c r="J118" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="K118" s="11" t="s">
         <v>18</v>
@@ -4610,7 +4610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="12" t="s">
         <v>19</v>
       </c>
@@ -4619,37 +4619,37 @@
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13">
-        <v>-58076</v>
+        <v>-77242</v>
       </c>
       <c r="F119" s="13">
-        <v>-77242</v>
+        <v>-1067194</v>
       </c>
       <c r="G119" s="13">
-        <v>-1067194</v>
+        <v>-572381</v>
       </c>
       <c r="H119" s="13">
-        <v>-572381</v>
+        <v>-1588606</v>
       </c>
       <c r="I119" s="13">
-        <v>-1588606</v>
+        <v>-2535428</v>
       </c>
       <c r="J119" s="13">
-        <v>-2535428</v>
+        <v>-3167808</v>
       </c>
       <c r="K119" s="13">
-        <v>-3167808</v>
+        <v>-2212918</v>
       </c>
       <c r="L119" s="13">
-        <v>-2212918</v>
+        <v>-5333363</v>
       </c>
       <c r="M119" s="13">
-        <v>-5333363</v>
+        <v>-4109853</v>
       </c>
       <c r="N119" s="13">
-        <v>-4109853</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4966400</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>21</v>
       </c>
@@ -4658,25 +4658,25 @@
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11">
-        <v>-4329</v>
+        <v>0</v>
       </c>
       <c r="F120" s="11">
-        <v>0</v>
+        <v>-47004</v>
       </c>
       <c r="G120" s="11">
-        <v>-47004</v>
+        <v>0</v>
       </c>
       <c r="H120" s="11">
-        <v>0</v>
+        <v>-5596</v>
       </c>
       <c r="I120" s="11">
-        <v>-5596</v>
+        <v>-1185</v>
       </c>
       <c r="J120" s="11">
-        <v>-1185</v>
+        <v>-9401</v>
       </c>
       <c r="K120" s="11">
-        <v>-9401</v>
+        <v>0</v>
       </c>
       <c r="L120" s="11">
         <v>0</v>
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="12" t="s">
         <v>22</v>
       </c>
@@ -4697,11 +4697,11 @@
       </c>
       <c r="D121" s="13"/>
       <c r="E121" s="13">
-        <v>-8358</v>
-      </c>
-      <c r="F121" s="13">
         <v>-2086</v>
       </c>
+      <c r="F121" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G121" s="13" t="s">
         <v>18</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="10" t="s">
         <v>23</v>
       </c>
@@ -4736,11 +4736,11 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>-331971</v>
-      </c>
-      <c r="F122" s="11">
         <v>-180895</v>
       </c>
+      <c r="F122" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G122" s="11" t="s">
         <v>18</v>
       </c>
@@ -4750,12 +4750,12 @@
       <c r="I122" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J122" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K122" s="11">
+      <c r="J122" s="11">
         <v>-2117596</v>
       </c>
+      <c r="K122" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L122" s="11" t="s">
         <v>18</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="12" t="s">
         <v>24</v>
       </c>
@@ -4775,37 +4775,37 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13">
-        <v>-12687</v>
+        <v>-42481</v>
       </c>
       <c r="F123" s="13">
-        <v>-42481</v>
+        <v>-54703</v>
       </c>
       <c r="G123" s="13">
-        <v>-54703</v>
+        <v>-15440</v>
       </c>
       <c r="H123" s="13">
-        <v>-15440</v>
+        <v>-31327</v>
       </c>
       <c r="I123" s="13">
-        <v>-31327</v>
+        <v>-55131</v>
       </c>
       <c r="J123" s="13">
-        <v>-55131</v>
+        <v>-796844</v>
       </c>
       <c r="K123" s="13">
-        <v>-796844</v>
+        <v>-401059</v>
       </c>
       <c r="L123" s="13">
-        <v>-401059</v>
+        <v>-863388</v>
       </c>
       <c r="M123" s="13">
-        <v>-863388</v>
+        <v>-1267413</v>
       </c>
       <c r="N123" s="13">
-        <v>-1267413</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-308746</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="10" t="s">
         <v>25</v>
       </c>
@@ -4813,12 +4813,12 @@
         <v>52</v>
       </c>
       <c r="D124" s="11"/>
-      <c r="E124" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F124" s="11">
+      <c r="E124" s="11">
         <v>-153626</v>
       </c>
+      <c r="F124" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G124" s="11" t="s">
         <v>18</v>
       </c>
@@ -4844,7 +4844,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="12" t="s">
         <v>26</v>
       </c>
@@ -4861,15 +4861,15 @@
       <c r="G125" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H125" s="13" t="s">
-        <v>18</v>
+      <c r="H125" s="13">
+        <v>0</v>
       </c>
       <c r="I125" s="13">
-        <v>0</v>
-      </c>
-      <c r="J125" s="13">
         <v>-440625</v>
       </c>
+      <c r="J125" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K125" s="13" t="s">
         <v>18</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="10" t="s">
         <v>27</v>
       </c>
@@ -4892,11 +4892,11 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>-214228</v>
-      </c>
-      <c r="F126" s="11">
         <v>-591939</v>
       </c>
+      <c r="F126" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G126" s="11" t="s">
         <v>18</v>
       </c>
@@ -4922,7 +4922,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="12" t="s">
         <v>28</v>
       </c>
@@ -4931,11 +4931,11 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F127" s="13">
         <v>1</v>
       </c>
+      <c r="F127" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G127" s="13" t="s">
         <v>18</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>29</v>
       </c>
@@ -4970,11 +4970,11 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>-99660</v>
-      </c>
-      <c r="F128" s="11">
         <v>-59720</v>
       </c>
+      <c r="F128" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G128" s="11" t="s">
         <v>18</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="12" t="s">
         <v>30</v>
       </c>
@@ -5009,11 +5009,11 @@
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="13">
-        <v>-2296</v>
-      </c>
-      <c r="F129" s="13">
         <v>-369</v>
       </c>
+      <c r="F129" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G129" s="13" t="s">
         <v>18</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>31</v>
       </c>
@@ -5050,35 +5050,35 @@
       <c r="E130" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F130" s="11" t="s">
-        <v>18</v>
+      <c r="F130" s="11">
+        <v>-20618</v>
       </c>
       <c r="G130" s="11">
-        <v>-20618</v>
+        <v>0</v>
       </c>
       <c r="H130" s="11">
         <v>0</v>
       </c>
       <c r="I130" s="11">
-        <v>0</v>
+        <v>-2089</v>
       </c>
       <c r="J130" s="11">
-        <v>-2089</v>
+        <v>-443143</v>
       </c>
       <c r="K130" s="11">
-        <v>-443143</v>
+        <v>-1651824</v>
       </c>
       <c r="L130" s="11">
-        <v>-1651824</v>
+        <v>-3817987</v>
       </c>
       <c r="M130" s="11">
-        <v>-3817987</v>
+        <v>-7962286</v>
       </c>
       <c r="N130" s="11">
-        <v>-7962286</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-12032790</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="12" t="s">
         <v>32</v>
       </c>
@@ -5087,11 +5087,11 @@
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13">
-        <v>-8118</v>
-      </c>
-      <c r="F131" s="13">
         <v>-14854</v>
       </c>
+      <c r="F131" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G131" s="13" t="s">
         <v>18</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>33</v>
       </c>
@@ -5128,35 +5128,35 @@
       <c r="E132" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>18</v>
+      <c r="F132" s="11">
+        <v>-1218779</v>
       </c>
       <c r="G132" s="11">
-        <v>-1218779</v>
+        <v>-3864</v>
       </c>
       <c r="H132" s="11">
-        <v>-3864</v>
+        <v>-551474</v>
       </c>
       <c r="I132" s="11">
-        <v>-551474</v>
-      </c>
-      <c r="J132" s="11">
         <v>-519460</v>
       </c>
-      <c r="K132" s="11" t="s">
-        <v>18</v>
+      <c r="J132" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K132" s="11">
+        <v>-495138</v>
       </c>
       <c r="L132" s="11">
-        <v>-495138</v>
+        <v>-1454730</v>
       </c>
       <c r="M132" s="11">
-        <v>-1454730</v>
+        <v>-1120365</v>
       </c>
       <c r="N132" s="11">
-        <v>-1120365</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2078803</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="12" t="s">
         <v>34</v>
       </c>
@@ -5167,8 +5167,8 @@
       <c r="E133" s="13">
         <v>0</v>
       </c>
-      <c r="F133" s="13">
-        <v>0</v>
+      <c r="F133" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G133" s="13" t="s">
         <v>18</v>
@@ -5195,7 +5195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>35</v>
       </c>
@@ -5203,8 +5203,8 @@
         <v>52</v>
       </c>
       <c r="D134" s="11"/>
-      <c r="E134" s="11">
-        <v>0</v>
+      <c r="E134" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>18</v>
@@ -5234,7 +5234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="12" t="s">
         <v>36</v>
       </c>
@@ -5273,7 +5273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="10" t="s">
         <v>37</v>
       </c>
@@ -5281,11 +5281,11 @@
         <v>52</v>
       </c>
       <c r="D136" s="11"/>
-      <c r="E136" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F136" s="11">
-        <v>0</v>
+      <c r="E136" s="11">
+        <v>0</v>
+      </c>
+      <c r="F136" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G136" s="11" t="s">
         <v>18</v>
@@ -5312,7 +5312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="12" t="s">
         <v>38</v>
       </c>
@@ -5323,72 +5323,72 @@
       <c r="E137" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>18</v>
+      <c r="F137" s="13">
+        <v>-429255</v>
       </c>
       <c r="G137" s="13">
-        <v>-429255</v>
+        <v>-84546</v>
       </c>
       <c r="H137" s="13">
-        <v>-84546</v>
+        <v>-509616</v>
       </c>
       <c r="I137" s="13">
-        <v>-509616</v>
+        <v>-374300</v>
       </c>
       <c r="J137" s="13">
-        <v>-374300</v>
+        <v>-98609</v>
       </c>
       <c r="K137" s="13">
-        <v>-98609</v>
+        <v>-145811</v>
       </c>
       <c r="L137" s="13">
-        <v>-145811</v>
+        <v>-534641</v>
       </c>
       <c r="M137" s="13">
-        <v>-534641</v>
+        <v>-678687</v>
       </c>
       <c r="N137" s="13">
-        <v>-678687</v>
-      </c>
-    </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-784547</v>
+      </c>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C138" s="15"/>
       <c r="D138" s="15"/>
       <c r="E138" s="15">
-        <v>-739724</v>
+        <v>-1123211</v>
       </c>
       <c r="F138" s="15">
-        <v>-1123211</v>
+        <v>-2837553</v>
       </c>
       <c r="G138" s="15">
-        <v>-2837553</v>
+        <v>-676231</v>
       </c>
       <c r="H138" s="15">
-        <v>-676231</v>
+        <v>-2686619</v>
       </c>
       <c r="I138" s="15">
-        <v>-2686619</v>
+        <v>-3928218</v>
       </c>
       <c r="J138" s="15">
-        <v>-3928218</v>
+        <v>-6633401</v>
       </c>
       <c r="K138" s="15">
-        <v>-6633401</v>
+        <v>-4906750</v>
       </c>
       <c r="L138" s="15">
-        <v>-4906750</v>
+        <v>-12004109</v>
       </c>
       <c r="M138" s="15">
-        <v>-12004109</v>
+        <v>-15138604</v>
       </c>
       <c r="N138" s="15">
-        <v>-15138604</v>
-      </c>
-    </row>
-    <row r="139" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-20171286</v>
+      </c>
+    </row>
+    <row r="139" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B139" s="8" t="s">
         <v>64</v>
       </c>
@@ -5405,7 +5405,7 @@
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="10" t="s">
         <v>41</v>
       </c>
@@ -5416,18 +5416,18 @@
       <c r="E140" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>18</v>
+      <c r="F140" s="11">
+        <v>-293481</v>
       </c>
       <c r="G140" s="11">
-        <v>-293481</v>
+        <v>-91185</v>
       </c>
       <c r="H140" s="11">
-        <v>-91185</v>
-      </c>
-      <c r="I140" s="11">
         <v>91185</v>
       </c>
+      <c r="I140" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J140" s="11" t="s">
         <v>18</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="16" t="s">
         <v>65</v>
       </c>
@@ -5454,16 +5454,16 @@
         <v>0</v>
       </c>
       <c r="F141" s="17">
-        <v>0</v>
+        <v>-293481</v>
       </c>
       <c r="G141" s="17">
-        <v>-293481</v>
+        <v>-91185</v>
       </c>
       <c r="H141" s="17">
-        <v>-91185</v>
+        <v>91185</v>
       </c>
       <c r="I141" s="17">
-        <v>91185</v>
+        <v>0</v>
       </c>
       <c r="J141" s="17">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="8" t="s">
         <v>66</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
     </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="10" t="s">
         <v>26</v>
       </c>
@@ -5506,38 +5506,38 @@
         <v>52</v>
       </c>
       <c r="D143" s="11"/>
-      <c r="E143" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F143" s="11">
-        <v>0</v>
+      <c r="E143" s="11">
+        <v>0</v>
+      </c>
+      <c r="F143" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G143" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H143" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I143" s="11">
+      <c r="H143" s="11">
         <v>-214667</v>
       </c>
-      <c r="J143" s="11" t="s">
-        <v>18</v>
+      <c r="I143" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J143" s="11">
+        <v>-521635</v>
       </c>
       <c r="K143" s="11">
-        <v>-521635</v>
+        <v>-239541</v>
       </c>
       <c r="L143" s="11">
-        <v>-239541</v>
+        <v>-203741</v>
       </c>
       <c r="M143" s="11">
-        <v>-203741</v>
+        <v>-492498</v>
       </c>
       <c r="N143" s="11">
-        <v>-492498</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-284651</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="12" t="s">
         <v>41</v>
       </c>
@@ -5546,74 +5546,74 @@
       </c>
       <c r="D144" s="13"/>
       <c r="E144" s="13">
-        <v>-90804</v>
-      </c>
-      <c r="F144" s="13">
         <v>-9226</v>
       </c>
+      <c r="F144" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G144" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H144" s="13" t="s">
-        <v>18</v>
+      <c r="H144" s="13">
+        <v>0</v>
       </c>
       <c r="I144" s="13">
-        <v>0</v>
+        <v>-4773</v>
       </c>
       <c r="J144" s="13">
-        <v>-4773</v>
+        <v>-99381</v>
       </c>
       <c r="K144" s="13">
-        <v>-99381</v>
+        <v>-152612</v>
       </c>
       <c r="L144" s="13">
-        <v>-152612</v>
+        <v>-499148</v>
       </c>
       <c r="M144" s="13">
-        <v>-499148</v>
+        <v>-1100996</v>
       </c>
       <c r="N144" s="13">
-        <v>-1100996</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-103066</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>67</v>
       </c>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
       <c r="E145" s="15">
-        <v>-90804</v>
+        <v>-9226</v>
       </c>
       <c r="F145" s="15">
-        <v>-9226</v>
+        <v>0</v>
       </c>
       <c r="G145" s="15">
         <v>0</v>
       </c>
       <c r="H145" s="15">
-        <v>0</v>
+        <v>-214667</v>
       </c>
       <c r="I145" s="15">
-        <v>-214667</v>
+        <v>-4773</v>
       </c>
       <c r="J145" s="15">
-        <v>-4773</v>
+        <v>-621016</v>
       </c>
       <c r="K145" s="15">
-        <v>-621016</v>
+        <v>-392153</v>
       </c>
       <c r="L145" s="15">
-        <v>-392153</v>
+        <v>-702889</v>
       </c>
       <c r="M145" s="15">
-        <v>-702889</v>
+        <v>-1593494</v>
       </c>
       <c r="N145" s="15">
-        <v>-1593494</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-387717</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="16" t="s">
         <v>45</v>
       </c>
@@ -5636,11 +5636,11 @@
       <c r="I146" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="J146" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K146" s="17">
-        <v>0</v>
+      <c r="J146" s="17">
+        <v>0</v>
+      </c>
+      <c r="K146" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="L146" s="17" t="s">
         <v>18</v>
@@ -5652,7 +5652,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="14" t="s">
         <v>47</v>
       </c>
@@ -5669,8 +5669,8 @@
       <c r="G147" s="15">
         <v>0</v>
       </c>
-      <c r="H147" s="15">
-        <v>0</v>
+      <c r="H147" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I147" s="15" t="s">
         <v>18</v>
@@ -5691,7 +5691,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="16" t="s">
         <v>48</v>
       </c>
@@ -5711,14 +5711,14 @@
       <c r="H148" s="17">
         <v>0</v>
       </c>
-      <c r="I148" s="17">
-        <v>0</v>
+      <c r="I148" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="J148" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K148" s="17" t="s">
-        <v>18</v>
+      <c r="K148" s="17">
+        <v>0</v>
       </c>
       <c r="L148" s="17">
         <v>0</v>
@@ -5730,44 +5730,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
         <v>49</v>
       </c>
       <c r="C149" s="15"/>
       <c r="D149" s="15"/>
       <c r="E149" s="15">
-        <v>-830528</v>
+        <v>-1132437</v>
       </c>
       <c r="F149" s="15">
-        <v>-1132437</v>
+        <v>-3131034</v>
       </c>
       <c r="G149" s="15">
-        <v>-3131034</v>
+        <v>-767416</v>
       </c>
       <c r="H149" s="15">
-        <v>-767416</v>
+        <v>-2810101</v>
       </c>
       <c r="I149" s="15">
-        <v>-2810101</v>
+        <v>-3932991</v>
       </c>
       <c r="J149" s="15">
-        <v>-3932991</v>
+        <v>-7254417</v>
       </c>
       <c r="K149" s="15">
-        <v>-7254417</v>
+        <v>-5298903</v>
       </c>
       <c r="L149" s="15">
-        <v>-5298903</v>
+        <v>-12706998</v>
       </c>
       <c r="M149" s="15">
-        <v>-12706998</v>
+        <v>-16732098</v>
       </c>
       <c r="N149" s="15">
-        <v>-16732098</v>
-      </c>
-    </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-20559003</v>
+      </c>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5782,7 +5782,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5797,7 +5797,7 @@
       <c r="M151" s="1"/>
       <c r="N151" s="1"/>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5812,7 +5812,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B153" s="7" t="s">
         <v>68</v>
       </c>
@@ -5849,7 +5849,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5864,7 +5864,7 @@
       <c r="M154" s="1"/>
       <c r="N154" s="1"/>
     </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>69</v>
       </c>
@@ -5881,7 +5881,7 @@
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>16</v>
       </c>
@@ -5901,12 +5901,12 @@
       <c r="H156" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I156" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J156" s="11">
+      <c r="I156" s="11">
         <v>-498269</v>
       </c>
+      <c r="J156" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="K156" s="11" t="s">
         <v>18</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="12" t="s">
         <v>19</v>
       </c>
@@ -5929,37 +5929,37 @@
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="13">
-        <v>182279</v>
+        <v>284240</v>
       </c>
       <c r="F157" s="13">
-        <v>284240</v>
+        <v>1164132</v>
       </c>
       <c r="G157" s="13">
-        <v>1164132</v>
+        <v>332739</v>
       </c>
       <c r="H157" s="13">
-        <v>332739</v>
+        <v>957809</v>
       </c>
       <c r="I157" s="13">
-        <v>957809</v>
+        <v>1764809</v>
       </c>
       <c r="J157" s="13">
-        <v>1764809</v>
+        <v>2189032</v>
       </c>
       <c r="K157" s="13">
-        <v>2189032</v>
+        <v>1533424</v>
       </c>
       <c r="L157" s="13">
-        <v>1533424</v>
+        <v>2391296</v>
       </c>
       <c r="M157" s="13">
-        <v>2391296</v>
+        <v>1045624</v>
       </c>
       <c r="N157" s="13">
-        <v>1045624</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4252389</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>21</v>
       </c>
@@ -5968,25 +5968,25 @@
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>11603</v>
+        <v>0</v>
       </c>
       <c r="F158" s="11">
-        <v>0</v>
+        <v>142923</v>
       </c>
       <c r="G158" s="11">
-        <v>142923</v>
+        <v>0</v>
       </c>
       <c r="H158" s="11">
-        <v>0</v>
+        <v>17889</v>
       </c>
       <c r="I158" s="11">
-        <v>17889</v>
+        <v>3512</v>
       </c>
       <c r="J158" s="11">
-        <v>3512</v>
+        <v>65751</v>
       </c>
       <c r="K158" s="11">
-        <v>65751</v>
+        <v>0</v>
       </c>
       <c r="L158" s="11">
         <v>0</v>
@@ -5998,7 +5998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="12" t="s">
         <v>22</v>
       </c>
@@ -6007,11 +6007,11 @@
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="13">
-        <v>21780</v>
-      </c>
-      <c r="F159" s="13">
         <v>5449</v>
       </c>
+      <c r="F159" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G159" s="13" t="s">
         <v>18</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="10" t="s">
         <v>23</v>
       </c>
@@ -6046,11 +6046,11 @@
       </c>
       <c r="D160" s="11"/>
       <c r="E160" s="11">
-        <v>423511</v>
-      </c>
-      <c r="F160" s="11">
         <v>-28467</v>
       </c>
+      <c r="F160" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G160" s="11" t="s">
         <v>18</v>
       </c>
@@ -6060,12 +6060,12 @@
       <c r="I160" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J160" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K160" s="11">
+      <c r="J160" s="11">
         <v>1755239</v>
       </c>
+      <c r="K160" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L160" s="11" t="s">
         <v>18</v>
       </c>
@@ -6076,7 +6076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="12" t="s">
         <v>24</v>
       </c>
@@ -6085,37 +6085,37 @@
       </c>
       <c r="D161" s="13"/>
       <c r="E161" s="13">
-        <v>71265</v>
+        <v>146355</v>
       </c>
       <c r="F161" s="13">
-        <v>146355</v>
+        <v>128104</v>
       </c>
       <c r="G161" s="13">
-        <v>128104</v>
+        <v>48976</v>
       </c>
       <c r="H161" s="13">
-        <v>48976</v>
+        <v>90053</v>
       </c>
       <c r="I161" s="13">
-        <v>90053</v>
+        <v>121631</v>
       </c>
       <c r="J161" s="13">
-        <v>121631</v>
+        <v>532378</v>
       </c>
       <c r="K161" s="13">
-        <v>532378</v>
+        <v>227579</v>
       </c>
       <c r="L161" s="13">
-        <v>227579</v>
+        <v>635351</v>
       </c>
       <c r="M161" s="13">
-        <v>635351</v>
+        <v>787730</v>
       </c>
       <c r="N161" s="13">
-        <v>787730</v>
-      </c>
-    </row>
-    <row r="162" spans="2:14" x14ac:dyDescent="0.25">
+        <v>439983</v>
+      </c>
+    </row>
+    <row r="162" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B162" s="10" t="s">
         <v>25</v>
       </c>
@@ -6123,12 +6123,12 @@
         <v>52</v>
       </c>
       <c r="D162" s="11"/>
-      <c r="E162" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F162" s="11">
+      <c r="E162" s="11">
         <v>307253</v>
       </c>
+      <c r="F162" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G162" s="11" t="s">
         <v>18</v>
       </c>
@@ -6154,7 +6154,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="12" t="s">
         <v>26</v>
       </c>
@@ -6171,15 +6171,15 @@
       <c r="G163" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H163" s="13" t="s">
-        <v>18</v>
+      <c r="H163" s="13">
+        <v>0</v>
       </c>
       <c r="I163" s="13">
-        <v>0</v>
-      </c>
-      <c r="J163" s="13">
         <v>1219099</v>
       </c>
+      <c r="J163" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="K163" s="13" t="s">
         <v>18</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="10" t="s">
         <v>27</v>
       </c>
@@ -6202,11 +6202,11 @@
       </c>
       <c r="D164" s="11"/>
       <c r="E164" s="11">
-        <v>278781</v>
-      </c>
-      <c r="F164" s="11">
         <v>-111012</v>
       </c>
+      <c r="F164" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G164" s="11" t="s">
         <v>18</v>
       </c>
@@ -6232,7 +6232,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="12" t="s">
         <v>28</v>
       </c>
@@ -6241,11 +6241,11 @@
       </c>
       <c r="D165" s="13"/>
       <c r="E165" s="13">
-        <v>-1</v>
-      </c>
-      <c r="F165" s="13">
         <v>1</v>
       </c>
+      <c r="F165" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G165" s="13" t="s">
         <v>18</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="10" t="s">
         <v>29</v>
       </c>
@@ -6280,11 +6280,11 @@
       </c>
       <c r="D166" s="11"/>
       <c r="E166" s="11">
-        <v>30838</v>
-      </c>
-      <c r="F166" s="11">
         <v>2134</v>
       </c>
+      <c r="F166" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="G166" s="11" t="s">
         <v>18</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="12" t="s">
         <v>30</v>
       </c>
@@ -6319,11 +6319,11 @@
       </c>
       <c r="D167" s="13"/>
       <c r="E167" s="13">
-        <v>6201</v>
-      </c>
-      <c r="F167" s="13">
         <v>-369</v>
       </c>
+      <c r="F167" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G167" s="13" t="s">
         <v>18</v>
       </c>
@@ -6349,7 +6349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="10" t="s">
         <v>31</v>
       </c>
@@ -6360,35 +6360,35 @@
       <c r="E168" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>18</v>
+      <c r="F168" s="11">
+        <v>55213</v>
       </c>
       <c r="G168" s="11">
-        <v>55213</v>
+        <v>0</v>
       </c>
       <c r="H168" s="11">
         <v>0</v>
       </c>
       <c r="I168" s="11">
-        <v>0</v>
+        <v>7563</v>
       </c>
       <c r="J168" s="11">
-        <v>7563</v>
+        <v>262328</v>
       </c>
       <c r="K168" s="11">
-        <v>262328</v>
+        <v>670469</v>
       </c>
       <c r="L168" s="11">
-        <v>670469</v>
+        <v>2065418</v>
       </c>
       <c r="M168" s="11">
-        <v>2065418</v>
+        <v>3896560</v>
       </c>
       <c r="N168" s="11">
-        <v>3896560</v>
-      </c>
-    </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+        <v>8683629</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="12" t="s">
         <v>32</v>
       </c>
@@ -6397,11 +6397,11 @@
       </c>
       <c r="D169" s="13"/>
       <c r="E169" s="13">
-        <v>41297</v>
-      </c>
-      <c r="F169" s="13">
         <v>55728</v>
       </c>
+      <c r="F169" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G169" s="13" t="s">
         <v>18</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="10" t="s">
         <v>33</v>
       </c>
@@ -6438,35 +6438,35 @@
       <c r="E170" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F170" s="11" t="s">
-        <v>18</v>
+      <c r="F170" s="11">
+        <v>526291</v>
       </c>
       <c r="G170" s="11">
-        <v>526291</v>
+        <v>894</v>
       </c>
       <c r="H170" s="11">
-        <v>894</v>
+        <v>522850</v>
       </c>
       <c r="I170" s="11">
-        <v>522850</v>
-      </c>
-      <c r="J170" s="11">
         <v>488871</v>
       </c>
-      <c r="K170" s="11" t="s">
-        <v>18</v>
+      <c r="J170" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K170" s="11">
+        <v>90078</v>
       </c>
       <c r="L170" s="11">
-        <v>90078</v>
+        <v>760424</v>
       </c>
       <c r="M170" s="11">
-        <v>760424</v>
+        <v>117697</v>
       </c>
       <c r="N170" s="11">
-        <v>117697</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1091699</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="12" t="s">
         <v>34</v>
       </c>
@@ -6477,8 +6477,8 @@
       <c r="E171" s="13">
         <v>0</v>
       </c>
-      <c r="F171" s="13">
-        <v>0</v>
+      <c r="F171" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G171" s="13" t="s">
         <v>18</v>
@@ -6505,7 +6505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="10" t="s">
         <v>35</v>
       </c>
@@ -6513,8 +6513,8 @@
         <v>52</v>
       </c>
       <c r="D172" s="11"/>
-      <c r="E172" s="11">
-        <v>0</v>
+      <c r="E172" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>18</v>
@@ -6544,7 +6544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="12" t="s">
         <v>36</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="174" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B174" s="10" t="s">
         <v>37</v>
       </c>
@@ -6591,11 +6591,11 @@
         <v>52</v>
       </c>
       <c r="D174" s="11"/>
-      <c r="E174" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F174" s="11">
-        <v>0</v>
+      <c r="E174" s="11">
+        <v>0</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G174" s="11" t="s">
         <v>18</v>
@@ -6622,7 +6622,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="12" t="s">
         <v>38</v>
       </c>
@@ -6633,72 +6633,72 @@
       <c r="E175" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F175" s="13" t="s">
-        <v>18</v>
+      <c r="F175" s="13">
+        <v>856345</v>
       </c>
       <c r="G175" s="13">
-        <v>856345</v>
+        <v>301748</v>
       </c>
       <c r="H175" s="13">
-        <v>301748</v>
+        <v>1062160</v>
       </c>
       <c r="I175" s="13">
-        <v>1062160</v>
+        <v>1939524</v>
       </c>
       <c r="J175" s="13">
-        <v>1939524</v>
+        <v>1325340</v>
       </c>
       <c r="K175" s="13">
-        <v>1325340</v>
+        <v>319810</v>
       </c>
       <c r="L175" s="13">
-        <v>319810</v>
+        <v>710327</v>
       </c>
       <c r="M175" s="13">
-        <v>710327</v>
+        <v>1173531</v>
       </c>
       <c r="N175" s="13">
-        <v>1173531</v>
-      </c>
-    </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+        <v>839650</v>
+      </c>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C176" s="15"/>
       <c r="D176" s="15"/>
       <c r="E176" s="15">
-        <v>1067554</v>
+        <v>661312</v>
       </c>
       <c r="F176" s="15">
-        <v>661312</v>
+        <v>2873008</v>
       </c>
       <c r="G176" s="15">
-        <v>2873008</v>
+        <v>684357</v>
       </c>
       <c r="H176" s="15">
-        <v>684357</v>
+        <v>2650761</v>
       </c>
       <c r="I176" s="15">
-        <v>2650761</v>
+        <v>5046740</v>
       </c>
       <c r="J176" s="15">
-        <v>5046740</v>
+        <v>6130068</v>
       </c>
       <c r="K176" s="15">
-        <v>6130068</v>
+        <v>2841360</v>
       </c>
       <c r="L176" s="15">
-        <v>2841360</v>
+        <v>6562816</v>
       </c>
       <c r="M176" s="15">
-        <v>6562816</v>
+        <v>7021142</v>
       </c>
       <c r="N176" s="15">
-        <v>7021142</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>15307350</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="8" t="s">
         <v>71</v>
       </c>
@@ -6715,7 +6715,7 @@
       <c r="M177" s="9"/>
       <c r="N177" s="9"/>
     </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="10" t="s">
         <v>41</v>
       </c>
@@ -6726,18 +6726,18 @@
       <c r="E178" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>18</v>
+      <c r="F178" s="11">
+        <v>2012433</v>
       </c>
       <c r="G178" s="11">
-        <v>2012433</v>
+        <v>253172</v>
       </c>
       <c r="H178" s="11">
-        <v>253172</v>
-      </c>
-      <c r="I178" s="11">
         <v>-253172</v>
       </c>
+      <c r="I178" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="J178" s="11" t="s">
         <v>18</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="16" t="s">
         <v>72</v>
       </c>
@@ -6764,16 +6764,16 @@
         <v>0</v>
       </c>
       <c r="F179" s="17">
-        <v>0</v>
+        <v>2012433</v>
       </c>
       <c r="G179" s="17">
-        <v>2012433</v>
+        <v>253172</v>
       </c>
       <c r="H179" s="17">
-        <v>253172</v>
+        <v>-253172</v>
       </c>
       <c r="I179" s="17">
-        <v>-253172</v>
+        <v>0</v>
       </c>
       <c r="J179" s="17">
         <v>0</v>
@@ -6791,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>73</v>
       </c>
@@ -6808,7 +6808,7 @@
       <c r="M180" s="9"/>
       <c r="N180" s="9"/>
     </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>26</v>
       </c>
@@ -6816,38 +6816,38 @@
         <v>52</v>
       </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F181" s="11">
-        <v>0</v>
+      <c r="E181" s="11">
+        <v>0</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G181" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H181" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I181" s="11">
+      <c r="H181" s="11">
         <v>631659</v>
       </c>
-      <c r="J181" s="11" t="s">
-        <v>18</v>
+      <c r="I181" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J181" s="11">
+        <v>2686364</v>
       </c>
       <c r="K181" s="11">
-        <v>2686364</v>
+        <v>577445</v>
       </c>
       <c r="L181" s="11">
-        <v>577445</v>
+        <v>749085</v>
       </c>
       <c r="M181" s="11">
-        <v>749085</v>
+        <v>1602478</v>
       </c>
       <c r="N181" s="11">
-        <v>1602478</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1400913</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="12" t="s">
         <v>41</v>
       </c>
@@ -6856,108 +6856,108 @@
       </c>
       <c r="D182" s="13"/>
       <c r="E182" s="13">
-        <v>582470</v>
-      </c>
-      <c r="F182" s="13">
         <v>466259</v>
       </c>
+      <c r="F182" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="G182" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H182" s="13" t="s">
-        <v>18</v>
+      <c r="H182" s="13">
+        <v>0</v>
       </c>
       <c r="I182" s="13">
-        <v>0</v>
+        <v>13011</v>
       </c>
       <c r="J182" s="13">
-        <v>13011</v>
+        <v>92775</v>
       </c>
       <c r="K182" s="13">
-        <v>92775</v>
+        <v>206823</v>
       </c>
       <c r="L182" s="13">
-        <v>206823</v>
+        <v>228395</v>
       </c>
       <c r="M182" s="13">
-        <v>228395</v>
+        <v>-213000</v>
       </c>
       <c r="N182" s="13">
-        <v>-213000</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>959866</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C183" s="15"/>
       <c r="D183" s="15"/>
       <c r="E183" s="15">
-        <v>582470</v>
+        <v>466259</v>
       </c>
       <c r="F183" s="15">
-        <v>466259</v>
+        <v>0</v>
       </c>
       <c r="G183" s="15">
         <v>0</v>
       </c>
       <c r="H183" s="15">
-        <v>0</v>
+        <v>631659</v>
       </c>
       <c r="I183" s="15">
-        <v>631659</v>
+        <v>13011</v>
       </c>
       <c r="J183" s="15">
-        <v>13011</v>
+        <v>2779139</v>
       </c>
       <c r="K183" s="15">
-        <v>2779139</v>
+        <v>784268</v>
       </c>
       <c r="L183" s="15">
-        <v>784268</v>
+        <v>977480</v>
       </c>
       <c r="M183" s="15">
-        <v>977480</v>
+        <v>1389478</v>
       </c>
       <c r="N183" s="15">
-        <v>1389478</v>
-      </c>
-    </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2360779</v>
+      </c>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="16" t="s">
         <v>49</v>
       </c>
       <c r="C184" s="17"/>
       <c r="D184" s="17"/>
       <c r="E184" s="17">
-        <v>1650024</v>
+        <v>1127571</v>
       </c>
       <c r="F184" s="17">
-        <v>1127571</v>
+        <v>4885441</v>
       </c>
       <c r="G184" s="17">
-        <v>4885441</v>
+        <v>937529</v>
       </c>
       <c r="H184" s="17">
-        <v>937529</v>
+        <v>3029248</v>
       </c>
       <c r="I184" s="17">
-        <v>3029248</v>
+        <v>5059751</v>
       </c>
       <c r="J184" s="17">
-        <v>5059751</v>
+        <v>8909207</v>
       </c>
       <c r="K184" s="17">
-        <v>8909207</v>
+        <v>3625628</v>
       </c>
       <c r="L184" s="17">
-        <v>3625628</v>
+        <v>7540296</v>
       </c>
       <c r="M184" s="17">
-        <v>7540296</v>
+        <v>8410620</v>
       </c>
       <c r="N184" s="17">
-        <v>8410620</v>
+        <v>17668129</v>
       </c>
     </row>
   </sheetData>
